--- a/Final Project/api/data/imports/Security.xlsx
+++ b/Final Project/api/data/imports/Security.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/227940f08aeb2ad5/Documents/GitHub/CIDM6330/Final Project/api/data/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D156BEAC-B8BB-4164-B8A6-E332988D7757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23BF024-3B8A-4413-8E75-0164A0A92DC5}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{D156BEAC-B8BB-4164-B8A6-E332988D7757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84C46CA9-3921-4F6E-BD13-F84993909F8C}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{1E5EA9A4-A98C-4688-B4BF-7BD79C3BD42A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E5EA9A4-A98C-4688-B4BF-7BD79C3BD42A}"/>
   </bookViews>
   <sheets>
     <sheet name="Security" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="165">
   <si>
     <t>rate</t>
   </si>
@@ -554,6 +554,12 @@
   </si>
   <si>
     <t>secrate_rate</t>
+  </si>
+  <si>
+    <t>cpr</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -607,6 +613,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -907,10 +917,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D28F2A0-FF69-4343-8EB4-A0407D605321}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="Q2" sqref="Q2:Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +943,7 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -982,8 +992,11 @@
       <c r="P1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1026,8 +1039,14 @@
       <c r="O2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1076,8 +1095,11 @@
       <c r="P3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1120,8 +1142,11 @@
       <c r="O4">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1164,8 +1189,11 @@
       <c r="O5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1214,8 +1242,11 @@
       <c r="P6">
         <v>1.8248980000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1264,8 +1295,11 @@
       <c r="P7">
         <v>1.551866E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1314,8 +1348,11 @@
       <c r="P8">
         <v>9.3328079999999994E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1364,8 +1401,11 @@
       <c r="P9">
         <v>0.68122590000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1414,8 +1454,11 @@
       <c r="P10">
         <v>0.73032297999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1464,8 +1507,11 @@
       <c r="P11">
         <v>0.73277747000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1514,8 +1560,11 @@
       <c r="P12">
         <v>0.81977286999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1564,8 +1613,11 @@
       <c r="P13">
         <v>0.83893419000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1614,8 +1666,11 @@
       <c r="P14">
         <v>0.80867370999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1664,8 +1719,11 @@
       <c r="P15">
         <v>0.81914061000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1714,8 +1772,11 @@
       <c r="P16">
         <v>0.76515988000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1764,8 +1825,11 @@
       <c r="P17">
         <v>0.92771048</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1814,8 +1878,11 @@
       <c r="P18">
         <v>0.85414146999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1864,8 +1931,11 @@
       <c r="P19">
         <v>0.91914286999999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1914,8 +1984,11 @@
       <c r="P20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1964,8 +2037,11 @@
       <c r="P21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2014,8 +2090,11 @@
       <c r="P22">
         <v>0.80403802999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -2064,8 +2143,11 @@
       <c r="P23">
         <v>0.84552006000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -2114,8 +2196,11 @@
       <c r="P24">
         <v>0.81436966</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2164,8 +2249,11 @@
       <c r="P25">
         <v>0.94759313999999994</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2214,8 +2302,11 @@
       <c r="P26">
         <v>5.1250459999999998E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2264,8 +2355,11 @@
       <c r="P27">
         <v>4.923835E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -2314,8 +2408,11 @@
       <c r="P28">
         <v>6.03157E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -2364,8 +2461,11 @@
       <c r="P29">
         <v>4.85368E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -2414,8 +2514,11 @@
       <c r="P30">
         <v>0.51480764999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2464,8 +2567,11 @@
       <c r="P31">
         <v>0.69303400999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2514,8 +2620,11 @@
       <c r="P32">
         <v>0.72065646999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2564,8 +2673,11 @@
       <c r="P33">
         <v>0.68287237000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2614,8 +2726,11 @@
       <c r="P34">
         <v>0.66231536000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2664,8 +2779,11 @@
       <c r="P35">
         <v>0.76974664999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2714,8 +2832,11 @@
       <c r="P36">
         <v>3.2709460000000003E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -2764,8 +2885,11 @@
       <c r="P37">
         <v>1.266683E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2814,8 +2938,11 @@
       <c r="P38">
         <v>0.3750115</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2864,8 +2991,11 @@
       <c r="P39">
         <v>0.79639579999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -2914,8 +3044,11 @@
       <c r="P40">
         <v>0.81935060000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -2964,8 +3097,11 @@
       <c r="P41">
         <v>0.88071697999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -3014,8 +3150,11 @@
       <c r="P42">
         <v>0.80515437999999995</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -3064,8 +3203,11 @@
       <c r="P43">
         <v>0.79746658999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -3114,8 +3256,11 @@
       <c r="P44">
         <v>0.79901343000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -3164,8 +3309,11 @@
       <c r="P45">
         <v>0.71257612999999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -3214,8 +3362,11 @@
       <c r="P46">
         <v>0.71134602000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -3264,8 +3415,11 @@
       <c r="P47">
         <v>2.065384E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -3314,8 +3468,11 @@
       <c r="P48">
         <v>3.0739E-4</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -3364,8 +3521,11 @@
       <c r="P49">
         <v>0.22497237</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -3414,8 +3574,11 @@
       <c r="P50">
         <v>0.36629486999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -3464,8 +3627,11 @@
       <c r="P51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -3514,8 +3680,11 @@
       <c r="P52">
         <v>0.95689387999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -3564,8 +3733,11 @@
       <c r="P53">
         <v>0.92941127999999995</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -3614,8 +3786,11 @@
       <c r="P54">
         <v>0.94924927000000003</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -3664,8 +3839,11 @@
       <c r="P55">
         <v>0.90522537000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>124</v>
       </c>
@@ -3714,8 +3892,11 @@
       <c r="P56">
         <v>0.95051125999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -3764,8 +3945,11 @@
       <c r="P57">
         <v>0.87604132999999995</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -3814,8 +3998,11 @@
       <c r="P58">
         <v>0.97211897999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -3864,8 +4051,11 @@
       <c r="P59">
         <v>0.89287492000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -3914,8 +4104,11 @@
       <c r="P60">
         <v>0.99651179000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -3964,8 +4157,11 @@
       <c r="P61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -4014,8 +4210,11 @@
       <c r="P62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -4058,8 +4257,11 @@
       <c r="O63">
         <v>2.375</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -4102,8 +4304,11 @@
       <c r="O64">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>141</v>
       </c>
@@ -4146,8 +4351,11 @@
       <c r="O65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -4196,8 +4404,11 @@
       <c r="P66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -4246,8 +4457,11 @@
       <c r="P67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -4289,6 +4503,9 @@
       </c>
       <c r="O68">
         <v>11</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
